--- a/DOC/基本設計/基本設計_emsm_基本給機能更新しゃ.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新しゃ.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -547,12 +547,42 @@
   <si>
     <t>”場所の長さが15文字を越えています”メッセージを画面に表示する</t>
   </si>
+  <si>
+    <t>項目名称種別</t>
+  </si>
+  <si>
+    <t>基本給</t>
+  </si>
+  <si>
+    <t>きほｎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>baseSalary</t>
+  </si>
+  <si>
+    <t>”対象年度を入力してください”メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>”稼働期間toを入力してください”メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>ステータスを選択していない場合</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,8 +916,122 @@
       <color theme="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FFFF3500"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,8 +1068,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="133">
+  <borders count="167">
     <border>
       <left/>
       <right/>
@@ -2415,13 +2569,473 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3510,6 +4124,225 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="138" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="140" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="141" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="142" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="142" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="143" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="145" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="5" applyFill="1" borderId="146" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="5" applyFill="1" borderId="147" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="148" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="148" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="5" applyFill="1" borderId="149" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="5" applyFill="1" borderId="150" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="5" applyFill="1" borderId="151" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="5" applyFill="1" borderId="152" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="153" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="153" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="155" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="156" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="157" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="158" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="160" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="153" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="153" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="154" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="155" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="156" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="157" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="161" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="158" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="159" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="162" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="160" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="8" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="5" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="5" applyFill="1" borderId="150" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="8" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="5" applyFill="1" borderId="152" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="5" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="3" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="3" applyFill="1" borderId="165" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="3" applyFill="1" borderId="166" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="67" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="68" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3538,9 +4371,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3533775" cy="4257675"/>
     <xdr:pic>
@@ -3559,7 +4392,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="1057275"/>
+          <a:off x="171450" y="819150"/>
           <a:ext cx="3533775" cy="4257675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3872,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB840810-B8C4-461F-9614-119EB62AE124}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:R20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4026,7 +4859,7 @@
     <row r="19" customFormat="1" s="4">
       <c r="A19" s="5"/>
       <c r="G19" s="103" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="H19" s="104"/>
       <c r="I19" s="104"/>
@@ -4079,7 +4912,7 @@
       <c r="R22" s="110"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" ht="13" customFormat="1" s="4">
+    <row r="23" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="G23" s="348" t="s">
         <v>122</v>
@@ -4835,7 +5668,7 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23" activeCellId="0"/>
+      <selection activeCell="BI25" sqref="BI25" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5433,7 +6266,7 @@
       <c r="BC6" s="149"/>
       <c r="BD6" s="149"/>
       <c r="BE6" s="149" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="BF6" s="148"/>
       <c r="BG6" s="148"/>
@@ -5581,7 +6414,7 @@
       <c r="BC8" s="157"/>
       <c r="BD8" s="158"/>
       <c r="BE8" s="156" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BF8" s="157"/>
       <c r="BG8" s="157"/>
@@ -5667,7 +6500,7 @@
       <c r="BM9" s="346"/>
       <c r="BN9" s="67"/>
     </row>
-    <row r="10" customHeight="1" ht="12">
+    <row r="10" ht="12">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -5709,13 +6542,13 @@
       <c r="AM10" s="66"/>
       <c r="AN10" s="66"/>
       <c r="AO10" s="66"/>
-      <c r="AP10" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ10" s="151"/>
+      <c r="AP10" s="150"/>
+      <c r="AQ10" s="151">
+        <v>4</v>
+      </c>
       <c r="AR10" s="152"/>
-      <c r="AS10" s="156" t="s">
-        <v>129</v>
+      <c r="AS10" s="349" t="s">
+        <v>169</v>
       </c>
       <c r="AT10" s="157"/>
       <c r="AU10" s="157"/>
@@ -5728,17 +6561,17 @@
       <c r="BB10" s="157"/>
       <c r="BC10" s="157"/>
       <c r="BD10" s="158"/>
-      <c r="BE10" s="156" t="s">
+      <c r="BE10" s="344" t="s">
         <v>31</v>
       </c>
-      <c r="BF10" s="157"/>
-      <c r="BG10" s="157"/>
-      <c r="BH10" s="157"/>
-      <c r="BI10" s="157"/>
-      <c r="BJ10" s="157"/>
-      <c r="BK10" s="157"/>
-      <c r="BL10" s="157"/>
-      <c r="BM10" s="158"/>
+      <c r="BF10" s="345"/>
+      <c r="BG10" s="345"/>
+      <c r="BH10" s="345"/>
+      <c r="BI10" s="345"/>
+      <c r="BJ10" s="345"/>
+      <c r="BK10" s="345"/>
+      <c r="BL10" s="345"/>
+      <c r="BM10" s="346"/>
       <c r="BN10" s="67"/>
     </row>
     <row r="11" customHeight="1" ht="12">
@@ -5789,7 +6622,7 @@
       <c r="AQ11" s="151"/>
       <c r="AR11" s="152"/>
       <c r="AS11" s="156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AT11" s="157"/>
       <c r="AU11" s="157"/>
@@ -5862,20 +6695,20 @@
       </c>
       <c r="AQ12" s="151"/>
       <c r="AR12" s="152"/>
-      <c r="AS12" s="159" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT12" s="160"/>
-      <c r="AU12" s="160"/>
-      <c r="AV12" s="160"/>
-      <c r="AW12" s="160"/>
-      <c r="AX12" s="160"/>
-      <c r="AY12" s="160"/>
-      <c r="AZ12" s="160"/>
-      <c r="BA12" s="160"/>
-      <c r="BB12" s="160"/>
-      <c r="BC12" s="160"/>
-      <c r="BD12" s="161"/>
+      <c r="AS12" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT12" s="157"/>
+      <c r="AU12" s="157"/>
+      <c r="AV12" s="157"/>
+      <c r="AW12" s="157"/>
+      <c r="AX12" s="157"/>
+      <c r="AY12" s="157"/>
+      <c r="AZ12" s="157"/>
+      <c r="BA12" s="157"/>
+      <c r="BB12" s="157"/>
+      <c r="BC12" s="157"/>
+      <c r="BD12" s="158"/>
       <c r="BE12" s="156" t="s">
         <v>31</v>
       </c>
@@ -5937,7 +6770,7 @@
       <c r="AQ13" s="151"/>
       <c r="AR13" s="152"/>
       <c r="AS13" s="159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AT13" s="160"/>
       <c r="AU13" s="160"/>
@@ -6010,20 +6843,20 @@
       </c>
       <c r="AQ14" s="151"/>
       <c r="AR14" s="152"/>
-      <c r="AS14" s="156" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT14" s="157"/>
-      <c r="AU14" s="157"/>
-      <c r="AV14" s="157"/>
-      <c r="AW14" s="157"/>
-      <c r="AX14" s="157"/>
-      <c r="AY14" s="157"/>
-      <c r="AZ14" s="157"/>
-      <c r="BA14" s="157"/>
-      <c r="BB14" s="157"/>
-      <c r="BC14" s="157"/>
-      <c r="BD14" s="158"/>
+      <c r="AS14" s="159" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT14" s="160"/>
+      <c r="AU14" s="160"/>
+      <c r="AV14" s="160"/>
+      <c r="AW14" s="160"/>
+      <c r="AX14" s="160"/>
+      <c r="AY14" s="160"/>
+      <c r="AZ14" s="160"/>
+      <c r="BA14" s="160"/>
+      <c r="BB14" s="160"/>
+      <c r="BC14" s="160"/>
+      <c r="BD14" s="161"/>
       <c r="BE14" s="156" t="s">
         <v>31</v>
       </c>
@@ -6085,7 +6918,7 @@
       <c r="AQ15" s="151"/>
       <c r="AR15" s="152"/>
       <c r="AS15" s="156" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT15" s="157"/>
       <c r="AU15" s="157"/>
@@ -6098,17 +6931,17 @@
       <c r="BB15" s="157"/>
       <c r="BC15" s="157"/>
       <c r="BD15" s="158"/>
-      <c r="BE15" s="159" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF15" s="160"/>
-      <c r="BG15" s="160"/>
-      <c r="BH15" s="160"/>
-      <c r="BI15" s="160"/>
-      <c r="BJ15" s="160"/>
-      <c r="BK15" s="160"/>
-      <c r="BL15" s="160"/>
-      <c r="BM15" s="161"/>
+      <c r="BE15" s="156" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF15" s="157"/>
+      <c r="BG15" s="157"/>
+      <c r="BH15" s="157"/>
+      <c r="BI15" s="157"/>
+      <c r="BJ15" s="157"/>
+      <c r="BK15" s="157"/>
+      <c r="BL15" s="157"/>
+      <c r="BM15" s="158"/>
       <c r="BN15" s="67"/>
     </row>
     <row r="16" customHeight="1" ht="12">
@@ -6159,7 +6992,7 @@
       <c r="AQ16" s="151"/>
       <c r="AR16" s="152"/>
       <c r="AS16" s="156" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="AT16" s="157"/>
       <c r="AU16" s="157"/>
@@ -6172,17 +7005,17 @@
       <c r="BB16" s="157"/>
       <c r="BC16" s="157"/>
       <c r="BD16" s="158"/>
-      <c r="BE16" s="156" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF16" s="157"/>
-      <c r="BG16" s="157"/>
-      <c r="BH16" s="157"/>
-      <c r="BI16" s="157"/>
-      <c r="BJ16" s="157"/>
-      <c r="BK16" s="157"/>
-      <c r="BL16" s="157"/>
-      <c r="BM16" s="158"/>
+      <c r="BE16" s="159" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF16" s="160"/>
+      <c r="BG16" s="160"/>
+      <c r="BH16" s="160"/>
+      <c r="BI16" s="160"/>
+      <c r="BJ16" s="160"/>
+      <c r="BK16" s="160"/>
+      <c r="BL16" s="160"/>
+      <c r="BM16" s="161"/>
       <c r="BN16" s="67"/>
     </row>
     <row r="17" customHeight="1" ht="12">
@@ -6227,36 +7060,36 @@
       <c r="AM17" s="66"/>
       <c r="AN17" s="66"/>
       <c r="AO17" s="66"/>
-      <c r="AP17" s="162" t="s">
+      <c r="AP17" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="AQ17" s="163"/>
-      <c r="AR17" s="164"/>
-      <c r="AS17" s="165" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT17" s="166"/>
-      <c r="AU17" s="166"/>
-      <c r="AV17" s="166"/>
-      <c r="AW17" s="166"/>
-      <c r="AX17" s="166"/>
-      <c r="AY17" s="166"/>
-      <c r="AZ17" s="166"/>
-      <c r="BA17" s="166"/>
-      <c r="BB17" s="166"/>
-      <c r="BC17" s="166"/>
-      <c r="BD17" s="167"/>
-      <c r="BE17" s="165" t="s">
+      <c r="AQ17" s="151"/>
+      <c r="AR17" s="152"/>
+      <c r="AS17" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT17" s="157"/>
+      <c r="AU17" s="157"/>
+      <c r="AV17" s="157"/>
+      <c r="AW17" s="157"/>
+      <c r="AX17" s="157"/>
+      <c r="AY17" s="157"/>
+      <c r="AZ17" s="157"/>
+      <c r="BA17" s="157"/>
+      <c r="BB17" s="157"/>
+      <c r="BC17" s="157"/>
+      <c r="BD17" s="158"/>
+      <c r="BE17" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="BF17" s="166"/>
-      <c r="BG17" s="166"/>
-      <c r="BH17" s="166"/>
-      <c r="BI17" s="166"/>
-      <c r="BJ17" s="166"/>
-      <c r="BK17" s="166"/>
-      <c r="BL17" s="166"/>
-      <c r="BM17" s="167"/>
+      <c r="BF17" s="157"/>
+      <c r="BG17" s="157"/>
+      <c r="BH17" s="157"/>
+      <c r="BI17" s="157"/>
+      <c r="BJ17" s="157"/>
+      <c r="BK17" s="157"/>
+      <c r="BL17" s="157"/>
+      <c r="BM17" s="158"/>
       <c r="BN17" s="67"/>
     </row>
     <row r="18" customHeight="1" ht="12">
@@ -6301,36 +7134,36 @@
       <c r="AM18" s="66"/>
       <c r="AN18" s="66"/>
       <c r="AO18" s="66"/>
-      <c r="AP18" s="168" t="s">
+      <c r="AP18" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="AQ18" s="169"/>
-      <c r="AR18" s="170"/>
-      <c r="AS18" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT18" s="172"/>
-      <c r="AU18" s="172"/>
-      <c r="AV18" s="172"/>
-      <c r="AW18" s="172"/>
-      <c r="AX18" s="172"/>
-      <c r="AY18" s="172"/>
-      <c r="AZ18" s="172"/>
-      <c r="BA18" s="172"/>
-      <c r="BB18" s="172"/>
-      <c r="BC18" s="172"/>
-      <c r="BD18" s="173"/>
-      <c r="BE18" s="171" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF18" s="171"/>
-      <c r="BG18" s="171"/>
-      <c r="BH18" s="171"/>
-      <c r="BI18" s="171"/>
-      <c r="BJ18" s="171"/>
-      <c r="BK18" s="171"/>
-      <c r="BL18" s="171"/>
-      <c r="BM18" s="173"/>
+      <c r="AQ18" s="163"/>
+      <c r="AR18" s="164"/>
+      <c r="AS18" s="165" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT18" s="166"/>
+      <c r="AU18" s="166"/>
+      <c r="AV18" s="166"/>
+      <c r="AW18" s="166"/>
+      <c r="AX18" s="166"/>
+      <c r="AY18" s="166"/>
+      <c r="AZ18" s="166"/>
+      <c r="BA18" s="166"/>
+      <c r="BB18" s="166"/>
+      <c r="BC18" s="166"/>
+      <c r="BD18" s="167"/>
+      <c r="BE18" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF18" s="166"/>
+      <c r="BG18" s="166"/>
+      <c r="BH18" s="166"/>
+      <c r="BI18" s="166"/>
+      <c r="BJ18" s="166"/>
+      <c r="BK18" s="166"/>
+      <c r="BL18" s="166"/>
+      <c r="BM18" s="167"/>
       <c r="BN18" s="67"/>
     </row>
     <row r="19" customHeight="1" ht="12">
@@ -6375,961 +7208,82 @@
       <c r="AM19" s="66"/>
       <c r="AN19" s="66"/>
       <c r="AO19" s="66"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="174"/>
-      <c r="BF19" s="175"/>
-      <c r="BG19" s="175"/>
-      <c r="BH19" s="175"/>
-      <c r="BI19" s="175"/>
-      <c r="BJ19" s="175"/>
-      <c r="BK19" s="175"/>
-      <c r="BL19" s="175"/>
-      <c r="BM19" s="176"/>
+      <c r="AP19" s="168" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ19" s="169"/>
+      <c r="AR19" s="170"/>
+      <c r="AS19" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT19" s="172"/>
+      <c r="AU19" s="172"/>
+      <c r="AV19" s="172"/>
+      <c r="AW19" s="172"/>
+      <c r="AX19" s="172"/>
+      <c r="AY19" s="172"/>
+      <c r="AZ19" s="172"/>
+      <c r="BA19" s="172"/>
+      <c r="BB19" s="172"/>
+      <c r="BC19" s="172"/>
+      <c r="BD19" s="173"/>
+      <c r="BE19" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF19" s="171"/>
+      <c r="BG19" s="171"/>
+      <c r="BH19" s="171"/>
+      <c r="BI19" s="171"/>
+      <c r="BJ19" s="171"/>
+      <c r="BK19" s="171"/>
+      <c r="BL19" s="171"/>
+      <c r="BM19" s="173"/>
       <c r="BN19" s="67"/>
     </row>
     <row r="20" customHeight="1" ht="12">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="177"/>
-      <c r="BF20" s="178"/>
-      <c r="BG20" s="178"/>
-      <c r="BH20" s="178"/>
-      <c r="BI20" s="178"/>
-      <c r="BJ20" s="178"/>
-      <c r="BK20" s="178"/>
-      <c r="BL20" s="178"/>
-      <c r="BM20" s="179"/>
-      <c r="BN20" s="67"/>
-    </row>
-    <row r="21" customHeight="1" ht="12">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="180"/>
-      <c r="BF21" s="181"/>
-      <c r="BG21" s="181"/>
-      <c r="BH21" s="181"/>
-      <c r="BI21" s="181"/>
-      <c r="BJ21" s="181"/>
-      <c r="BK21" s="181"/>
-      <c r="BL21" s="181"/>
-      <c r="BM21" s="182"/>
-      <c r="BN21" s="67"/>
-    </row>
-    <row r="22" customHeight="1" ht="12">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="183"/>
-      <c r="BF22" s="175"/>
-      <c r="BG22" s="175"/>
-      <c r="BH22" s="175"/>
-      <c r="BI22" s="175"/>
-      <c r="BJ22" s="175"/>
-      <c r="BK22" s="175"/>
-      <c r="BL22" s="175"/>
-      <c r="BM22" s="176"/>
-      <c r="BN22" s="67"/>
-    </row>
-    <row r="23" customHeight="1" ht="12">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="68"/>
-      <c r="AW23" s="68"/>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="68"/>
-      <c r="BC23" s="68"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="184"/>
-      <c r="BF23" s="185"/>
-      <c r="BG23" s="185"/>
-      <c r="BH23" s="185"/>
-      <c r="BI23" s="185"/>
-      <c r="BJ23" s="185"/>
-      <c r="BK23" s="185"/>
-      <c r="BL23" s="185"/>
-      <c r="BM23" s="186"/>
-      <c r="BN23" s="67"/>
-    </row>
-    <row r="24" customHeight="1" ht="12">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="68"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="68"/>
-      <c r="AS24" s="68"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
-      <c r="BC24" s="68"/>
-      <c r="BD24" s="73"/>
-      <c r="BE24" s="175"/>
-      <c r="BF24" s="175"/>
-      <c r="BG24" s="175"/>
-      <c r="BH24" s="175"/>
-      <c r="BI24" s="175"/>
-      <c r="BJ24" s="175"/>
-      <c r="BK24" s="175"/>
-      <c r="BL24" s="175"/>
-      <c r="BM24" s="176"/>
-      <c r="BN24" s="67"/>
-    </row>
-    <row r="25" customHeight="1" ht="12">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="68"/>
-      <c r="AS25" s="68"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68"/>
-      <c r="BE25" s="184"/>
-      <c r="BF25" s="185"/>
-      <c r="BG25" s="185"/>
-      <c r="BH25" s="185"/>
-      <c r="BI25" s="185"/>
-      <c r="BJ25" s="185"/>
-      <c r="BK25" s="185"/>
-      <c r="BL25" s="185"/>
-      <c r="BM25" s="186"/>
-      <c r="BN25" s="67"/>
-    </row>
-    <row r="26" customHeight="1" ht="12">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="68"/>
-      <c r="AQ26" s="68"/>
-      <c r="AR26" s="68"/>
-      <c r="AS26" s="68"/>
-      <c r="AT26" s="68"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="68"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="73"/>
-      <c r="BE26" s="175"/>
-      <c r="BF26" s="175"/>
-      <c r="BG26" s="175"/>
-      <c r="BH26" s="175"/>
-      <c r="BI26" s="175"/>
-      <c r="BJ26" s="175"/>
-      <c r="BK26" s="175"/>
-      <c r="BL26" s="175"/>
-      <c r="BM26" s="176"/>
-      <c r="BN26" s="67"/>
-    </row>
-    <row r="27" customHeight="1" ht="12">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="184"/>
-      <c r="BF27" s="185"/>
-      <c r="BG27" s="185"/>
-      <c r="BH27" s="185"/>
-      <c r="BI27" s="185"/>
-      <c r="BJ27" s="185"/>
-      <c r="BK27" s="185"/>
-      <c r="BL27" s="185"/>
-      <c r="BM27" s="186"/>
-      <c r="BN27" s="67"/>
-    </row>
-    <row r="28" customHeight="1" ht="12">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
-      <c r="AR28" s="68"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="73"/>
-      <c r="BE28" s="175"/>
-      <c r="BF28" s="175"/>
-      <c r="BG28" s="175"/>
-      <c r="BH28" s="175"/>
-      <c r="BI28" s="175"/>
-      <c r="BJ28" s="175"/>
-      <c r="BK28" s="175"/>
-      <c r="BL28" s="175"/>
-      <c r="BM28" s="176"/>
-      <c r="BN28" s="67"/>
-    </row>
-    <row r="29" customHeight="1" ht="12">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="68"/>
-      <c r="AT29" s="68"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="184"/>
-      <c r="BF29" s="185"/>
-      <c r="BG29" s="185"/>
-      <c r="BH29" s="185"/>
-      <c r="BI29" s="185"/>
-      <c r="BJ29" s="185"/>
-      <c r="BK29" s="185"/>
-      <c r="BL29" s="185"/>
-      <c r="BM29" s="186"/>
-      <c r="BN29" s="67"/>
-    </row>
-    <row r="30" customHeight="1" ht="12">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="66"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="68"/>
-      <c r="AQ30" s="68"/>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
-      <c r="BE30" s="174"/>
-      <c r="BF30" s="175"/>
-      <c r="BG30" s="175"/>
-      <c r="BH30" s="175"/>
-      <c r="BI30" s="175"/>
-      <c r="BJ30" s="175"/>
-      <c r="BK30" s="175"/>
-      <c r="BL30" s="175"/>
-      <c r="BM30" s="176"/>
-      <c r="BN30" s="67"/>
-    </row>
-    <row r="31" customHeight="1" ht="12">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="174"/>
-      <c r="BF31" s="175"/>
-      <c r="BG31" s="175"/>
-      <c r="BH31" s="175"/>
-      <c r="BI31" s="175"/>
-      <c r="BJ31" s="175"/>
-      <c r="BK31" s="175"/>
-      <c r="BL31" s="175"/>
-      <c r="BM31" s="176"/>
-      <c r="BN31" s="67"/>
-    </row>
-    <row r="32" customHeight="1" ht="12">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="70"/>
-      <c r="AD32" s="70"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="70"/>
-      <c r="AH32" s="70"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="70"/>
-      <c r="AK32" s="70"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="70"/>
-      <c r="AN32" s="70"/>
-      <c r="AO32" s="70"/>
-      <c r="AP32" s="71"/>
-      <c r="AQ32" s="71"/>
-      <c r="AR32" s="71"/>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="71"/>
-      <c r="AU32" s="71"/>
-      <c r="AV32" s="71"/>
-      <c r="AW32" s="71"/>
-      <c r="AX32" s="71"/>
-      <c r="AY32" s="71"/>
-      <c r="AZ32" s="71"/>
-      <c r="BA32" s="71"/>
-      <c r="BB32" s="71"/>
-      <c r="BC32" s="71"/>
-      <c r="BD32" s="74"/>
-      <c r="BE32" s="187"/>
-      <c r="BF32" s="187"/>
-      <c r="BG32" s="187"/>
-      <c r="BH32" s="187"/>
-      <c r="BI32" s="187"/>
-      <c r="BJ32" s="187"/>
-      <c r="BK32" s="187"/>
-      <c r="BL32" s="187"/>
-      <c r="BM32" s="188"/>
-      <c r="BN32" s="72"/>
-    </row>
-    <row r="33" customHeight="1" ht="12">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="56">
     <mergeCell ref="A2:Z3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:N4"/>
@@ -7359,9 +7313,6 @@
     <mergeCell ref="AP9:AR9"/>
     <mergeCell ref="AS9:BD9"/>
     <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
     <mergeCell ref="AP11:AR11"/>
     <mergeCell ref="AS11:BD11"/>
     <mergeCell ref="BE11:BM11"/>
@@ -7386,20 +7337,9 @@
     <mergeCell ref="AP18:AR18"/>
     <mergeCell ref="AS18:BD18"/>
     <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="AS19:BD19"/>
     <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BE24:BM24"/>
-    <mergeCell ref="BE25:BM25"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7412,7 +7352,7 @@
   <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:BL15" activeCellId="0"/>
+      <selection activeCell="BE30" sqref="BE30" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9947,8 +9887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="160" zoomScaleNormal="160" workbookViewId="0" topLeftCell="DE10">
-      <selection activeCell="EN23" sqref="EN23" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="150" zoomScaleNormal="150" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="AZ4" sqref="AZ4:BE4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10288,7 +10228,7 @@
       <c r="E4" s="229"/>
       <c r="F4" s="230"/>
       <c r="G4" s="231" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H4" s="232"/>
       <c r="I4" s="232"/>
@@ -10307,7 +10247,7 @@
       <c r="T4" s="235"/>
       <c r="U4" s="236"/>
       <c r="V4" s="237" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="W4" s="238"/>
       <c r="X4" s="238"/>
@@ -10691,10 +10631,10 @@
       <c r="N9" s="272"/>
       <c r="O9" s="272"/>
       <c r="P9" s="273"/>
-      <c r="Q9" s="274">
+      <c r="Q9" s="85">
         <v>8</v>
       </c>
-      <c r="R9" s="275"/>
+      <c r="R9" s="86"/>
       <c r="S9" s="271" t="s">
         <v>95</v>
       </c>
@@ -10729,9 +10669,7 @@
       <c r="AL9" s="282"/>
       <c r="AM9" s="282"/>
       <c r="AN9" s="283"/>
-      <c r="AO9" s="284" t="s">
-        <v>100</v>
-      </c>
+      <c r="AO9" s="284"/>
       <c r="AP9" s="285"/>
       <c r="AQ9" s="285"/>
       <c r="AR9" s="285"/>
@@ -10784,11 +10722,11 @@
       <c r="Q10" s="85">
         <v>8</v>
       </c>
-      <c r="R10" s="275"/>
-      <c r="S10" s="290" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="291"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="271" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="273"/>
       <c r="U10" s="276" t="s">
         <v>104</v>
       </c>
@@ -10851,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="286" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C11" s="287"/>
       <c r="D11" s="287"/>
@@ -10872,7 +10810,7 @@
       <c r="Q11" s="85">
         <v>8</v>
       </c>
-      <c r="R11" s="275"/>
+      <c r="R11" s="86"/>
       <c r="S11" s="290" t="s">
         <v>95</v>
       </c>
@@ -10899,7 +10837,7 @@
       <c r="AF11" s="279"/>
       <c r="AG11" s="280"/>
       <c r="AH11" s="292" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="AI11" s="293"/>
       <c r="AJ11" s="293"/>
@@ -10960,7 +10898,7 @@
       <c r="Q12" s="85">
         <v>4</v>
       </c>
-      <c r="R12" s="275"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="290" t="s">
         <v>95</v>
       </c>
@@ -11040,12 +10978,12 @@
       <c r="K13" s="287"/>
       <c r="L13" s="288"/>
       <c r="M13" s="271" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N13" s="272"/>
       <c r="O13" s="272"/>
       <c r="P13" s="273"/>
-      <c r="Q13" s="87"/>
+      <c r="Q13" s="85"/>
       <c r="R13" s="86">
         <v>0</v>
       </c>
@@ -11128,12 +11066,12 @@
       <c r="K14" s="157"/>
       <c r="L14" s="288"/>
       <c r="M14" s="271" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N14" s="272"/>
       <c r="O14" s="272"/>
       <c r="P14" s="273"/>
-      <c r="Q14" s="87"/>
+      <c r="Q14" s="85"/>
       <c r="R14" s="86">
         <v>0</v>
       </c>
@@ -11216,13 +11154,13 @@
       <c r="K15" s="287"/>
       <c r="L15" s="288"/>
       <c r="M15" s="271" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="N15" s="272"/>
       <c r="O15" s="272"/>
       <c r="P15" s="273"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="355" t="s">
+      <c r="Q15" s="400"/>
+      <c r="R15" s="435" t="s">
         <v>141</v>
       </c>
       <c r="S15" s="290" t="s">
@@ -11304,16 +11242,16 @@
       <c r="K16" s="287"/>
       <c r="L16" s="288"/>
       <c r="M16" s="271" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="N16" s="272"/>
       <c r="O16" s="272"/>
-      <c r="P16" s="273"/>
-      <c r="Q16" s="356" t="s">
+      <c r="P16" s="398"/>
+      <c r="Q16" s="436"/>
+      <c r="R16" s="437" t="s">
         <v>141</v>
       </c>
-      <c r="R16" s="86"/>
-      <c r="S16" s="290" t="s">
+      <c r="S16" s="399" t="s">
         <v>95</v>
       </c>
       <c r="T16" s="291"/>
@@ -11397,8 +11335,8 @@
       <c r="N17" s="272"/>
       <c r="O17" s="272"/>
       <c r="P17" s="273"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="86">
+      <c r="Q17" s="395"/>
+      <c r="R17" s="396">
         <v>0</v>
       </c>
       <c r="S17" s="290" t="s">
@@ -11435,9 +11373,7 @@
       <c r="AL17" s="293"/>
       <c r="AM17" s="293"/>
       <c r="AN17" s="294"/>
-      <c r="AO17" s="284" t="s">
-        <v>100</v>
-      </c>
+      <c r="AO17" s="284"/>
       <c r="AP17" s="285"/>
       <c r="AQ17" s="285"/>
       <c r="AR17" s="285"/>
@@ -11488,7 +11424,7 @@
       <c r="O18" s="272"/>
       <c r="P18" s="273"/>
       <c r="Q18" s="85"/>
-      <c r="R18" s="355">
+      <c r="R18" s="438">
         <v>8</v>
       </c>
       <c r="S18" s="290" t="s">
@@ -11503,7 +11439,9 @@
         <v>64</v>
       </c>
       <c r="X18" s="273"/>
-      <c r="Y18" s="271"/>
+      <c r="Y18" s="271" t="s">
+        <v>65</v>
+      </c>
       <c r="Z18" s="272"/>
       <c r="AA18" s="272"/>
       <c r="AB18" s="273"/>
@@ -11523,7 +11461,9 @@
       <c r="AL18" s="293"/>
       <c r="AM18" s="293"/>
       <c r="AN18" s="293"/>
-      <c r="AO18" s="295"/>
+      <c r="AO18" s="284" t="s">
+        <v>100</v>
+      </c>
       <c r="AP18" s="285"/>
       <c r="AQ18" s="285"/>
       <c r="AR18" s="285"/>
@@ -11567,41 +11507,51 @@
       <c r="J19" s="157"/>
       <c r="K19" s="157"/>
       <c r="L19" s="288"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="271"/>
+      <c r="M19" s="390" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="391"/>
+      <c r="O19" s="391"/>
+      <c r="P19" s="392"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="86">
         <v>8</v>
       </c>
-      <c r="S19" s="290"/>
+      <c r="S19" s="290" t="s">
+        <v>95</v>
+      </c>
       <c r="T19" s="298"/>
-      <c r="U19" s="299"/>
-      <c r="V19" s="300"/>
-      <c r="W19" s="301"/>
+      <c r="U19" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="V19" s="277"/>
+      <c r="W19" s="272" t="s">
+        <v>64</v>
+      </c>
       <c r="X19" s="273"/>
       <c r="Y19" s="271"/>
       <c r="Z19" s="272"/>
       <c r="AA19" s="272"/>
       <c r="AB19" s="273"/>
-      <c r="AC19" s="359" t="s">
+      <c r="AC19" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="AD19" s="360"/>
-      <c r="AE19" s="360"/>
-      <c r="AF19" s="360"/>
-      <c r="AG19" s="360"/>
+      <c r="AD19" s="428"/>
+      <c r="AE19" s="428"/>
+      <c r="AF19" s="428"/>
+      <c r="AG19" s="429"/>
       <c r="AH19" s="364"/>
       <c r="AI19" s="362"/>
-      <c r="AJ19" s="359" t="s">
+      <c r="AJ19" s="430" t="s">
         <v>152</v>
       </c>
       <c r="AK19" s="362"/>
       <c r="AL19" s="362"/>
       <c r="AM19" s="362"/>
       <c r="AN19" s="365"/>
-      <c r="AO19" s="295"/>
+      <c r="AO19" s="433" t="s">
+        <v>100</v>
+      </c>
       <c r="AP19" s="285"/>
       <c r="AQ19" s="285"/>
       <c r="AR19" s="285"/>
@@ -11639,9 +11589,6 @@
     <row r="22" customHeight="1" ht="12">
       <c r="A22" s="62"/>
       <c r="B22" s="62"/>
-      <c r="L22" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="23" customHeight="1" ht="15">
       <c r="A23" s="62"/>
@@ -11704,7 +11651,7 @@
       <c r="B37" s="302"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="136">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -11829,6 +11776,11 @@
     <mergeCell ref="AC18:AG18"/>
     <mergeCell ref="AH18:AN18"/>
     <mergeCell ref="AO18:BL18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="AC19:AG19"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
@@ -11846,8 +11798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" tabSelected="1">
-      <selection activeCell="BH27" sqref="BH27" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150">
+      <selection activeCell="AZ4" sqref="AZ4:BE4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12213,7 +12165,7 @@
       <c r="BM3" s="57"/>
       <c r="BN3" s="58"/>
     </row>
-    <row r="4" ht="18">
+    <row r="4" ht="15">
       <c r="A4" s="228" t="s">
         <v>11</v>
       </c>
@@ -12273,9 +12225,8 @@
       </c>
       <c r="AX4" s="241"/>
       <c r="AY4" s="242"/>
-      <c r="AZ4" s="204" t="str">
-        <f>[1]画面レイアウト!AZ4</f>
-        <v>202/07/6</v>
+      <c r="AZ4" s="447">
+        <v>45068</v>
       </c>
       <c r="BA4" s="205"/>
       <c r="BB4" s="205"/>
@@ -12287,9 +12238,8 @@
       </c>
       <c r="BG4" s="241"/>
       <c r="BH4" s="242"/>
-      <c r="BI4" s="243" t="str">
-        <f>[1]画面レイアウト!BI4</f>
-        <v>ユ</v>
+      <c r="BI4" s="243" t="s">
+        <v>123</v>
       </c>
       <c r="BJ4" s="205"/>
       <c r="BK4" s="205"/>
@@ -12444,25 +12394,25 @@
       <c r="BM6" s="59"/>
       <c r="BN6" s="63"/>
     </row>
-    <row r="7" ht="9" customFormat="1" s="64">
+    <row r="7" ht="12" customFormat="1" s="64">
       <c r="A7" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="303" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="304"/>
-      <c r="J7" s="304"/>
-      <c r="K7" s="304"/>
-      <c r="L7" s="304"/>
-      <c r="M7" s="304"/>
-      <c r="N7" s="304"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
       <c r="O7" s="305"/>
       <c r="P7" s="306" t="s">
         <v>72</v>
@@ -12527,18 +12477,18 @@
       <c r="B8" s="309" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="310"/>
-      <c r="D8" s="310"/>
-      <c r="E8" s="310"/>
-      <c r="F8" s="310"/>
-      <c r="G8" s="310"/>
-      <c r="H8" s="310"/>
-      <c r="I8" s="310"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="310"/>
-      <c r="M8" s="310"/>
-      <c r="N8" s="310"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="309"/>
+      <c r="K8" s="309"/>
+      <c r="L8" s="309"/>
+      <c r="M8" s="309"/>
+      <c r="N8" s="309"/>
       <c r="O8" s="311"/>
       <c r="P8" s="312" t="s">
         <v>154</v>
@@ -12603,124 +12553,128 @@
       <c r="B9" s="317" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="318"/>
-      <c r="D9" s="318"/>
-      <c r="E9" s="318"/>
-      <c r="F9" s="318"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="318"/>
-      <c r="I9" s="318"/>
-      <c r="J9" s="318"/>
-      <c r="K9" s="318"/>
-      <c r="L9" s="318"/>
-      <c r="M9" s="318"/>
-      <c r="N9" s="318"/>
-      <c r="O9" s="319"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="309"/>
+      <c r="F9" s="309"/>
+      <c r="G9" s="309"/>
+      <c r="H9" s="309"/>
+      <c r="I9" s="309"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="309"/>
+      <c r="L9" s="309"/>
+      <c r="M9" s="309"/>
+      <c r="N9" s="309"/>
+      <c r="O9" s="309"/>
       <c r="P9" s="320" t="s">
         <v>155</v>
       </c>
-      <c r="Q9" s="321"/>
-      <c r="R9" s="321"/>
-      <c r="S9" s="321"/>
-      <c r="T9" s="321"/>
-      <c r="U9" s="321"/>
-      <c r="V9" s="321"/>
-      <c r="W9" s="321"/>
-      <c r="X9" s="321"/>
-      <c r="Y9" s="321"/>
-      <c r="Z9" s="321"/>
-      <c r="AA9" s="321"/>
-      <c r="AB9" s="321"/>
-      <c r="AC9" s="321"/>
-      <c r="AD9" s="321"/>
-      <c r="AE9" s="321"/>
-      <c r="AF9" s="321"/>
-      <c r="AG9" s="321"/>
-      <c r="AH9" s="321"/>
-      <c r="AI9" s="321"/>
-      <c r="AJ9" s="321"/>
-      <c r="AK9" s="321"/>
-      <c r="AL9" s="321"/>
-      <c r="AM9" s="321"/>
-      <c r="AN9" s="321"/>
-      <c r="AO9" s="321"/>
-      <c r="AP9" s="321"/>
-      <c r="AQ9" s="321"/>
-      <c r="AR9" s="321"/>
+      <c r="Q9" s="320"/>
+      <c r="R9" s="320"/>
+      <c r="S9" s="320"/>
+      <c r="T9" s="320"/>
+      <c r="U9" s="320"/>
+      <c r="V9" s="320"/>
+      <c r="W9" s="320"/>
+      <c r="X9" s="320"/>
+      <c r="Y9" s="320"/>
+      <c r="Z9" s="320"/>
+      <c r="AA9" s="320"/>
+      <c r="AB9" s="320"/>
+      <c r="AC9" s="320"/>
+      <c r="AD9" s="320"/>
+      <c r="AE9" s="320"/>
+      <c r="AF9" s="320"/>
+      <c r="AG9" s="320"/>
+      <c r="AH9" s="320"/>
+      <c r="AI9" s="320"/>
+      <c r="AJ9" s="320"/>
+      <c r="AK9" s="320"/>
+      <c r="AL9" s="320"/>
+      <c r="AM9" s="320"/>
+      <c r="AN9" s="320"/>
+      <c r="AO9" s="320"/>
+      <c r="AP9" s="320"/>
+      <c r="AQ9" s="320"/>
+      <c r="AR9" s="320"/>
       <c r="AS9" s="322" t="s">
         <v>163</v>
       </c>
-      <c r="AT9" s="323"/>
-      <c r="AU9" s="323"/>
-      <c r="AV9" s="323"/>
-      <c r="AW9" s="323"/>
-      <c r="AX9" s="323"/>
-      <c r="AY9" s="323"/>
-      <c r="AZ9" s="323"/>
-      <c r="BA9" s="323"/>
-      <c r="BB9" s="323"/>
-      <c r="BC9" s="323"/>
-      <c r="BD9" s="323"/>
-      <c r="BE9" s="323"/>
-      <c r="BF9" s="323"/>
-      <c r="BG9" s="323"/>
-      <c r="BH9" s="323"/>
-      <c r="BI9" s="323"/>
-      <c r="BJ9" s="323"/>
-      <c r="BK9" s="323"/>
-      <c r="BL9" s="323"/>
-      <c r="BM9" s="323"/>
+      <c r="AT9" s="322"/>
+      <c r="AU9" s="322"/>
+      <c r="AV9" s="322"/>
+      <c r="AW9" s="322"/>
+      <c r="AX9" s="322"/>
+      <c r="AY9" s="322"/>
+      <c r="AZ9" s="322"/>
+      <c r="BA9" s="322"/>
+      <c r="BB9" s="322"/>
+      <c r="BC9" s="322"/>
+      <c r="BD9" s="322"/>
+      <c r="BE9" s="322"/>
+      <c r="BF9" s="322"/>
+      <c r="BG9" s="322"/>
+      <c r="BH9" s="322"/>
+      <c r="BI9" s="322"/>
+      <c r="BJ9" s="322"/>
+      <c r="BK9" s="322"/>
+      <c r="BL9" s="322"/>
+      <c r="BM9" s="322"/>
       <c r="BN9" s="324"/>
     </row>
-    <row r="10" ht="15">
+    <row r="10">
       <c r="A10" s="89">
         <v>3</v>
       </c>
       <c r="B10" s="317" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="318"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="318"/>
-      <c r="F10" s="318"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="318"/>
-      <c r="I10" s="318"/>
-      <c r="J10" s="318"/>
-      <c r="K10" s="318"/>
-      <c r="L10" s="318"/>
-      <c r="M10" s="318"/>
-      <c r="N10" s="318"/>
-      <c r="O10" s="325"/>
-      <c r="P10" s="371" t="s">
+      <c r="C10" s="309"/>
+      <c r="D10" s="309"/>
+      <c r="E10" s="309"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="309"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="309"/>
+      <c r="L10" s="309"/>
+      <c r="M10" s="309"/>
+      <c r="N10" s="309"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="439" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="88"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="88"/>
+      <c r="Q10" s="440"/>
+      <c r="R10" s="440"/>
+      <c r="S10" s="440"/>
+      <c r="T10" s="440"/>
+      <c r="U10" s="440"/>
+      <c r="V10" s="440"/>
+      <c r="W10" s="440"/>
+      <c r="X10" s="440"/>
+      <c r="Y10" s="440"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="440"/>
+      <c r="AE10" s="440"/>
+      <c r="AF10" s="440"/>
+      <c r="AG10" s="440"/>
+      <c r="AH10" s="440"/>
+      <c r="AI10" s="440"/>
+      <c r="AJ10" s="440"/>
+      <c r="AK10" s="440"/>
+      <c r="AL10" s="440"/>
+      <c r="AM10" s="440"/>
+      <c r="AN10" s="440"/>
+      <c r="AO10" s="440"/>
+      <c r="AP10" s="440"/>
+      <c r="AQ10" s="440"/>
+      <c r="AR10" s="440"/>
       <c r="AS10" s="326" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AT10" s="327"/>
       <c r="AU10" s="327"/>
@@ -12751,20 +12705,20 @@
       <c r="B11" s="317" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="318"/>
-      <c r="D11" s="318"/>
-      <c r="E11" s="318"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="318"/>
-      <c r="I11" s="318"/>
-      <c r="J11" s="318"/>
-      <c r="K11" s="318"/>
-      <c r="L11" s="318"/>
-      <c r="M11" s="318"/>
-      <c r="N11" s="318"/>
-      <c r="O11" s="319"/>
-      <c r="P11" s="371" t="s">
+      <c r="C11" s="309"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="309"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="309"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="309"/>
+      <c r="L11" s="309"/>
+      <c r="M11" s="309"/>
+      <c r="N11" s="309"/>
+      <c r="O11" s="309"/>
+      <c r="P11" s="441" t="s">
         <v>160</v>
       </c>
       <c r="Q11" s="88"/>
@@ -12781,20 +12735,20 @@
       <c r="AB11" s="88"/>
       <c r="AC11" s="88"/>
       <c r="AD11" s="88"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="95"/>
+      <c r="AE11" s="442"/>
+      <c r="AF11" s="442"/>
+      <c r="AG11" s="442"/>
+      <c r="AH11" s="442"/>
+      <c r="AI11" s="442"/>
+      <c r="AJ11" s="442"/>
+      <c r="AK11" s="442"/>
+      <c r="AL11" s="442"/>
+      <c r="AM11" s="442"/>
+      <c r="AN11" s="442"/>
+      <c r="AO11" s="442"/>
+      <c r="AP11" s="442"/>
+      <c r="AQ11" s="442"/>
+      <c r="AR11" s="442"/>
       <c r="AS11" s="329" t="s">
         <v>165</v>
       </c>
@@ -12827,52 +12781,52 @@
       <c r="B12" s="317" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="318"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="318"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="318"/>
-      <c r="I12" s="318"/>
-      <c r="J12" s="318"/>
-      <c r="K12" s="318"/>
-      <c r="L12" s="318"/>
-      <c r="M12" s="318"/>
-      <c r="N12" s="318"/>
-      <c r="O12" s="325"/>
-      <c r="P12" s="330" t="s">
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
+      <c r="H12" s="309"/>
+      <c r="I12" s="309"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="309"/>
+      <c r="L12" s="309"/>
+      <c r="M12" s="309"/>
+      <c r="N12" s="309"/>
+      <c r="O12" s="443"/>
+      <c r="P12" s="320" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="330"/>
-      <c r="R12" s="330"/>
-      <c r="S12" s="330"/>
-      <c r="T12" s="330"/>
-      <c r="U12" s="330"/>
-      <c r="V12" s="330"/>
-      <c r="W12" s="330"/>
-      <c r="X12" s="330"/>
-      <c r="Y12" s="330"/>
-      <c r="Z12" s="330"/>
-      <c r="AA12" s="330"/>
-      <c r="AB12" s="330"/>
-      <c r="AC12" s="330"/>
-      <c r="AD12" s="330"/>
-      <c r="AE12" s="330"/>
-      <c r="AF12" s="330"/>
-      <c r="AG12" s="330"/>
-      <c r="AH12" s="330"/>
-      <c r="AI12" s="330"/>
-      <c r="AJ12" s="330"/>
-      <c r="AK12" s="330"/>
-      <c r="AL12" s="330"/>
-      <c r="AM12" s="330"/>
-      <c r="AN12" s="330"/>
-      <c r="AO12" s="330"/>
-      <c r="AP12" s="330"/>
-      <c r="AQ12" s="330"/>
-      <c r="AR12" s="330"/>
-      <c r="AS12" s="331" t="s">
-        <v>166</v>
+      <c r="Q12" s="320"/>
+      <c r="R12" s="320"/>
+      <c r="S12" s="320"/>
+      <c r="T12" s="320"/>
+      <c r="U12" s="320"/>
+      <c r="V12" s="320"/>
+      <c r="W12" s="320"/>
+      <c r="X12" s="320"/>
+      <c r="Y12" s="320"/>
+      <c r="Z12" s="320"/>
+      <c r="AA12" s="320"/>
+      <c r="AB12" s="320"/>
+      <c r="AC12" s="320"/>
+      <c r="AD12" s="320"/>
+      <c r="AE12" s="320"/>
+      <c r="AF12" s="320"/>
+      <c r="AG12" s="320"/>
+      <c r="AH12" s="320"/>
+      <c r="AI12" s="320"/>
+      <c r="AJ12" s="320"/>
+      <c r="AK12" s="320"/>
+      <c r="AL12" s="320"/>
+      <c r="AM12" s="320"/>
+      <c r="AN12" s="320"/>
+      <c r="AO12" s="320"/>
+      <c r="AP12" s="320"/>
+      <c r="AQ12" s="320"/>
+      <c r="AR12" s="320"/>
+      <c r="AS12" s="444" t="s">
+        <v>176</v>
       </c>
       <c r="AT12" s="332"/>
       <c r="AU12" s="332"/>
@@ -12900,155 +12854,80 @@
       <c r="A13" s="89">
         <v>6</v>
       </c>
-      <c r="B13" s="334" t="s">
+      <c r="B13" s="317" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="335"/>
-      <c r="D13" s="335"/>
-      <c r="E13" s="335"/>
-      <c r="F13" s="335"/>
-      <c r="G13" s="335"/>
-      <c r="H13" s="335"/>
-      <c r="I13" s="335"/>
-      <c r="J13" s="335"/>
-      <c r="K13" s="335"/>
-      <c r="L13" s="335"/>
-      <c r="M13" s="335"/>
-      <c r="N13" s="335"/>
-      <c r="O13" s="336"/>
-      <c r="P13" s="337" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="337"/>
-      <c r="R13" s="337"/>
-      <c r="S13" s="337"/>
-      <c r="T13" s="337"/>
-      <c r="U13" s="337"/>
-      <c r="V13" s="337"/>
-      <c r="W13" s="337"/>
-      <c r="X13" s="337"/>
-      <c r="Y13" s="337"/>
-      <c r="Z13" s="337"/>
-      <c r="AA13" s="337"/>
-      <c r="AB13" s="337"/>
-      <c r="AC13" s="337"/>
-      <c r="AD13" s="337"/>
-      <c r="AE13" s="337"/>
-      <c r="AF13" s="337"/>
-      <c r="AG13" s="337"/>
-      <c r="AH13" s="337"/>
-      <c r="AI13" s="337"/>
-      <c r="AJ13" s="337"/>
-      <c r="AK13" s="337"/>
-      <c r="AL13" s="337"/>
-      <c r="AM13" s="337"/>
-      <c r="AN13" s="337"/>
-      <c r="AO13" s="337"/>
-      <c r="AP13" s="337"/>
-      <c r="AQ13" s="337"/>
-      <c r="AR13" s="337"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="309"/>
+      <c r="L13" s="309"/>
+      <c r="M13" s="309"/>
+      <c r="N13" s="309"/>
+      <c r="O13" s="311"/>
+      <c r="P13" s="445" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="445"/>
+      <c r="R13" s="445"/>
+      <c r="S13" s="445"/>
+      <c r="T13" s="445"/>
+      <c r="U13" s="445"/>
+      <c r="V13" s="445"/>
+      <c r="W13" s="445"/>
+      <c r="X13" s="445"/>
+      <c r="Y13" s="445"/>
+      <c r="Z13" s="445"/>
+      <c r="AA13" s="445"/>
+      <c r="AB13" s="445"/>
+      <c r="AC13" s="445"/>
+      <c r="AD13" s="445"/>
+      <c r="AE13" s="445"/>
+      <c r="AF13" s="445"/>
+      <c r="AG13" s="445"/>
+      <c r="AH13" s="445"/>
+      <c r="AI13" s="445"/>
+      <c r="AJ13" s="445"/>
+      <c r="AK13" s="445"/>
+      <c r="AL13" s="445"/>
+      <c r="AM13" s="445"/>
+      <c r="AN13" s="445"/>
+      <c r="AO13" s="445"/>
+      <c r="AP13" s="445"/>
+      <c r="AQ13" s="445"/>
+      <c r="AR13" s="445"/>
       <c r="AS13" s="342" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT13" s="323"/>
-      <c r="AU13" s="323"/>
-      <c r="AV13" s="323"/>
-      <c r="AW13" s="323"/>
-      <c r="AX13" s="323"/>
-      <c r="AY13" s="323"/>
-      <c r="AZ13" s="323"/>
-      <c r="BA13" s="323"/>
-      <c r="BB13" s="323"/>
-      <c r="BC13" s="323"/>
-      <c r="BD13" s="323"/>
-      <c r="BE13" s="323"/>
-      <c r="BF13" s="323"/>
-      <c r="BG13" s="323"/>
-      <c r="BH13" s="323"/>
-      <c r="BI13" s="323"/>
-      <c r="BJ13" s="323"/>
-      <c r="BK13" s="323"/>
-      <c r="BL13" s="323"/>
-      <c r="BM13" s="323"/>
+        <v>166</v>
+      </c>
+      <c r="AT13" s="322"/>
+      <c r="AU13" s="322"/>
+      <c r="AV13" s="322"/>
+      <c r="AW13" s="322"/>
+      <c r="AX13" s="322"/>
+      <c r="AY13" s="322"/>
+      <c r="AZ13" s="322"/>
+      <c r="BA13" s="322"/>
+      <c r="BB13" s="322"/>
+      <c r="BC13" s="322"/>
+      <c r="BD13" s="322"/>
+      <c r="BE13" s="322"/>
+      <c r="BF13" s="322"/>
+      <c r="BG13" s="322"/>
+      <c r="BH13" s="322"/>
+      <c r="BI13" s="322"/>
+      <c r="BJ13" s="322"/>
+      <c r="BK13" s="322"/>
+      <c r="BL13" s="322"/>
+      <c r="BM13" s="322"/>
       <c r="BN13" s="324"/>
     </row>
-    <row r="14" ht="12">
-      <c r="A14" s="91">
-        <v>7</v>
-      </c>
-      <c r="B14" s="338" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="339"/>
-      <c r="D14" s="339"/>
-      <c r="E14" s="339"/>
-      <c r="F14" s="339"/>
-      <c r="G14" s="339"/>
-      <c r="H14" s="339"/>
-      <c r="I14" s="339"/>
-      <c r="J14" s="339"/>
-      <c r="K14" s="339"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="339"/>
-      <c r="N14" s="339"/>
-      <c r="O14" s="310"/>
-      <c r="P14" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="343" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT14" s="323"/>
-      <c r="AU14" s="323"/>
-      <c r="AV14" s="323"/>
-      <c r="AW14" s="323"/>
-      <c r="AX14" s="323"/>
-      <c r="AY14" s="323"/>
-      <c r="AZ14" s="323"/>
-      <c r="BA14" s="323"/>
-      <c r="BB14" s="323"/>
-      <c r="BC14" s="323"/>
-      <c r="BD14" s="323"/>
-      <c r="BE14" s="323"/>
-      <c r="BF14" s="323"/>
-      <c r="BG14" s="323"/>
-      <c r="BH14" s="323"/>
-      <c r="BI14" s="323"/>
-      <c r="BJ14" s="323"/>
-      <c r="BK14" s="323"/>
-      <c r="BL14" s="323"/>
-      <c r="BM14" s="323"/>
-      <c r="BN14" s="324"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="36">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -13085,8 +12964,6 @@
     <mergeCell ref="B13:O13"/>
     <mergeCell ref="P13:AR13"/>
     <mergeCell ref="AS13:BN13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="AS14:BN14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
